--- a/data/EXCEL/résultat pouls.xlsx
+++ b/data/EXCEL/résultat pouls.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1" xr2:uid="{BAE331A0-1D63-4395-986C-4D2C80D3587B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{BAE331A0-1D63-4395-986C-4D2C80D3587B}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -103,6 +103,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Graphique des</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t> résultats du capteur cardiaque</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3875,6 +3905,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Temps en miliseconde</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3939,6 +4024,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Nombre de Pulsation par minute</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3984,6 +4124,10 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4015,6 +4159,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -4022,7 +4167,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4052,7 +4196,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup paperSize="5" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -4070,8 +4214,34 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Graphique des données du capteur cardiaque zoomé </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4103,23 +4273,16 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="4.3623381048992237E-2"/>
-          <c:y val="0.23652777777777778"/>
-          <c:w val="0.95279399518405095"/>
-          <c:h val="0.60250765529308836"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>BTM</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:noFill/>
@@ -4538,13 +4701,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9662-4509-B7E4-23E35239B25B}"/>
+              <c16:uniqueId val="{00000000-673B-4720-88B7-5C32783D813E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>BTM</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -4965,7 +5131,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9662-4509-B7E4-23E35239B25B}"/>
+              <c16:uniqueId val="{00000001-673B-4720-88B7-5C32783D813E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4978,16 +5144,76 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="546354056"/>
-        <c:axId val="546354384"/>
+        <c:axId val="721578632"/>
+        <c:axId val="721578960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="546354056"/>
+        <c:axId val="721578632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Temps</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-FR" baseline="0"/>
+                  <a:t> en miliseconde</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5024,7 +5250,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="546354384"/>
+        <c:crossAx val="721578960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5032,11 +5258,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="546354384"/>
+        <c:axId val="721578960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="220"/>
-          <c:min val="30"/>
+          <c:max val="250"/>
+          <c:min val="50"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5054,6 +5280,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Nombre de</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-FR" baseline="0"/>
+                  <a:t> pulsation par minute</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5085,7 +5371,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="546354056"/>
+        <c:crossAx val="721578632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5099,6 +5385,10 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5130,6 +5420,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -5137,14 +5428,18 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -5162,7 +5457,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup paperSize="5" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -6293,6 +6588,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="418087312"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -6339,6 +6635,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -6346,7 +6643,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -8091,14 +8387,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>761999</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>409574</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8464,12 +8760,298 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/themeOverride1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4472C4"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{855041A9-43C6-4276-9197-B1BA8A0D6E25}">
   <dimension ref="A1:B607"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z9" sqref="Z9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13341,7 +13923,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5033FA6A-1062-4A0E-9C02-6224D72BB6CD}">
   <dimension ref="A1:E270"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
